--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efna2-Epha7.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efna2-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.03393674090764</v>
+        <v>1.186026</v>
       </c>
       <c r="H2">
-        <v>4.03393674090764</v>
+        <v>3.558078</v>
       </c>
       <c r="I2">
-        <v>0.7096733959659056</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J2">
-        <v>0.7096733959659056</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.231983347609583</v>
+        <v>0.014513</v>
       </c>
       <c r="N2">
-        <v>0.231983347609583</v>
+        <v>0.043539</v>
       </c>
       <c r="O2">
-        <v>0.10671913502428</v>
+        <v>0.006538124153480057</v>
       </c>
       <c r="P2">
-        <v>0.10671913502428</v>
+        <v>0.009244530017173054</v>
       </c>
       <c r="Q2">
-        <v>0.9358061492010454</v>
+        <v>0.017212795338</v>
       </c>
       <c r="R2">
-        <v>0.9358061492010454</v>
+        <v>0.154915158042</v>
       </c>
       <c r="S2">
-        <v>0.07573573096722482</v>
+        <v>0.0009337667539381725</v>
       </c>
       <c r="T2">
-        <v>0.07573573096722482</v>
+        <v>0.001409217155535309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.03393674090764</v>
+        <v>1.186026</v>
       </c>
       <c r="H3">
-        <v>4.03393674090764</v>
+        <v>3.558078</v>
       </c>
       <c r="I3">
-        <v>0.7096733959659056</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J3">
-        <v>0.7096733959659056</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.94179127637705</v>
+        <v>0.2421403333333333</v>
       </c>
       <c r="N3">
-        <v>1.94179127637705</v>
+        <v>0.726421</v>
       </c>
       <c r="O3">
-        <v>0.89328086497572</v>
+        <v>0.1090845147039467</v>
       </c>
       <c r="P3">
-        <v>0.89328086497572</v>
+        <v>0.154239204841748</v>
       </c>
       <c r="Q3">
-        <v>7.833063172951323</v>
+        <v>0.287184730982</v>
       </c>
       <c r="R3">
-        <v>7.833063172951323</v>
+        <v>2.584662578838</v>
       </c>
       <c r="S3">
-        <v>0.6339376649986809</v>
+        <v>0.01557931461821634</v>
       </c>
       <c r="T3">
-        <v>0.6339376649986809</v>
+        <v>0.02351190737823823</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.507537865534903</v>
+        <v>1.186026</v>
       </c>
       <c r="H4">
-        <v>0.507537865534903</v>
+        <v>3.558078</v>
       </c>
       <c r="I4">
-        <v>0.08928898585910881</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J4">
-        <v>0.08928898585910881</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.231983347609583</v>
+        <v>0.013551</v>
       </c>
       <c r="N4">
-        <v>0.231983347609583</v>
+        <v>0.040653</v>
       </c>
       <c r="O4">
-        <v>0.10671913502428</v>
+        <v>0.006104741983312083</v>
       </c>
       <c r="P4">
-        <v>0.10671913502428</v>
+        <v>0.008631752653669954</v>
       </c>
       <c r="Q4">
-        <v>0.1177403330854092</v>
+        <v>0.016071838326</v>
       </c>
       <c r="R4">
-        <v>0.1177403330854092</v>
+        <v>0.144646544934</v>
       </c>
       <c r="S4">
-        <v>0.009528843338079263</v>
+        <v>0.0008718716518029474</v>
       </c>
       <c r="T4">
-        <v>0.009528843338079263</v>
+        <v>0.001315806633684212</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.507537865534903</v>
+        <v>1.186026</v>
       </c>
       <c r="H5">
-        <v>0.507537865534903</v>
+        <v>3.558078</v>
       </c>
       <c r="I5">
-        <v>0.08928898585910881</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J5">
-        <v>0.08928898585910881</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.94179127637705</v>
+        <v>1.9495455</v>
       </c>
       <c r="N5">
-        <v>1.94179127637705</v>
+        <v>3.899091</v>
       </c>
       <c r="O5">
-        <v>0.89328086497572</v>
+        <v>0.878272619159261</v>
       </c>
       <c r="P5">
-        <v>0.89328086497572</v>
+        <v>0.827884512487409</v>
       </c>
       <c r="Q5">
-        <v>0.9855325997267028</v>
+        <v>2.312211651183</v>
       </c>
       <c r="R5">
-        <v>0.9855325997267028</v>
+        <v>13.873269907098</v>
       </c>
       <c r="S5">
-        <v>0.07976014252102956</v>
+        <v>0.1254338023282417</v>
       </c>
       <c r="T5">
-        <v>0.07976014252102956</v>
+        <v>0.1262010135325415</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.142741208661</v>
+        <v>4.393048666666667</v>
       </c>
       <c r="H6">
-        <v>1.142741208661</v>
+        <v>13.179146</v>
       </c>
       <c r="I6">
-        <v>0.2010376181749855</v>
+        <v>0.5290016768392695</v>
       </c>
       <c r="J6">
-        <v>0.2010376181749855</v>
+        <v>0.5646312220084034</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.231983347609583</v>
+        <v>0.014513</v>
       </c>
       <c r="N6">
-        <v>0.231983347609583</v>
+        <v>0.043539</v>
       </c>
       <c r="O6">
-        <v>0.10671913502428</v>
+        <v>0.006538124153480057</v>
       </c>
       <c r="P6">
-        <v>0.10671913502428</v>
+        <v>0.009244530017173054</v>
       </c>
       <c r="Q6">
-        <v>0.2650969310365998</v>
+        <v>0.06375631529933334</v>
       </c>
       <c r="R6">
-        <v>0.2650969310365998</v>
+        <v>0.5738068376940001</v>
       </c>
       <c r="S6">
-        <v>0.02145456071897592</v>
+        <v>0.003458678640574279</v>
       </c>
       <c r="T6">
-        <v>0.02145456071897592</v>
+        <v>0.005219750280489788</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.393048666666667</v>
+      </c>
+      <c r="H7">
+        <v>13.179146</v>
+      </c>
+      <c r="I7">
+        <v>0.5290016768392695</v>
+      </c>
+      <c r="J7">
+        <v>0.5646312220084034</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.2421403333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.726421</v>
+      </c>
+      <c r="O7">
+        <v>0.1090845147039467</v>
+      </c>
+      <c r="P7">
+        <v>0.154239204841748</v>
+      </c>
+      <c r="Q7">
+        <v>1.063734268496222</v>
+      </c>
+      <c r="R7">
+        <v>9.573608416466001</v>
+      </c>
+      <c r="S7">
+        <v>0.05770589119558577</v>
+      </c>
+      <c r="T7">
+        <v>0.08708827071140063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.393048666666667</v>
+      </c>
+      <c r="H8">
+        <v>13.179146</v>
+      </c>
+      <c r="I8">
+        <v>0.5290016768392695</v>
+      </c>
+      <c r="J8">
+        <v>0.5646312220084034</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.013551</v>
+      </c>
+      <c r="N8">
+        <v>0.040653</v>
+      </c>
+      <c r="O8">
+        <v>0.006104741983312083</v>
+      </c>
+      <c r="P8">
+        <v>0.008631752653669954</v>
+      </c>
+      <c r="Q8">
+        <v>0.05953020248200001</v>
+      </c>
+      <c r="R8">
+        <v>0.535771822338</v>
+      </c>
+      <c r="S8">
+        <v>0.00322941874584318</v>
+      </c>
+      <c r="T8">
+        <v>0.004873757048915945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.393048666666667</v>
+      </c>
+      <c r="H9">
+        <v>13.179146</v>
+      </c>
+      <c r="I9">
+        <v>0.5290016768392695</v>
+      </c>
+      <c r="J9">
+        <v>0.5646312220084034</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.9495455</v>
+      </c>
+      <c r="N9">
+        <v>3.899091</v>
+      </c>
+      <c r="O9">
+        <v>0.878272619159261</v>
+      </c>
+      <c r="P9">
+        <v>0.827884512487409</v>
+      </c>
+      <c r="Q9">
+        <v>8.564448259381001</v>
+      </c>
+      <c r="R9">
+        <v>51.38668955628601</v>
+      </c>
+      <c r="S9">
+        <v>0.4646076882572662</v>
+      </c>
+      <c r="T9">
+        <v>0.4674494439675971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.785643</v>
+      </c>
+      <c r="H10">
+        <v>2.356929</v>
+      </c>
+      <c r="I10">
+        <v>0.09460547695511548</v>
+      </c>
+      <c r="J10">
+        <v>0.1009773851399054</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.014513</v>
+      </c>
+      <c r="N10">
+        <v>0.043539</v>
+      </c>
+      <c r="O10">
+        <v>0.006538124153480057</v>
+      </c>
+      <c r="P10">
+        <v>0.009244530017173054</v>
+      </c>
+      <c r="Q10">
+        <v>0.011402036859</v>
+      </c>
+      <c r="R10">
+        <v>0.102618331731</v>
+      </c>
+      <c r="S10">
+        <v>0.0006185423539317415</v>
+      </c>
+      <c r="T10">
+        <v>0.0009334884679815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.785643</v>
+      </c>
+      <c r="H11">
+        <v>2.356929</v>
+      </c>
+      <c r="I11">
+        <v>0.09460547695511548</v>
+      </c>
+      <c r="J11">
+        <v>0.1009773851399054</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2421403333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.726421</v>
+      </c>
+      <c r="O11">
+        <v>0.1090845147039467</v>
+      </c>
+      <c r="P11">
+        <v>0.154239204841748</v>
+      </c>
+      <c r="Q11">
+        <v>0.190235857901</v>
+      </c>
+      <c r="R11">
+        <v>1.712122721109</v>
+      </c>
+      <c r="S11">
+        <v>0.01031999254198419</v>
+      </c>
+      <c r="T11">
+        <v>0.01557467159097795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.785643</v>
+      </c>
+      <c r="H12">
+        <v>2.356929</v>
+      </c>
+      <c r="I12">
+        <v>0.09460547695511548</v>
+      </c>
+      <c r="J12">
+        <v>0.1009773851399054</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.013551</v>
+      </c>
+      <c r="N12">
+        <v>0.040653</v>
+      </c>
+      <c r="O12">
+        <v>0.006104741983312083</v>
+      </c>
+      <c r="P12">
+        <v>0.008631752653669954</v>
+      </c>
+      <c r="Q12">
+        <v>0.010646248293</v>
+      </c>
+      <c r="R12">
+        <v>0.09581623463700001</v>
+      </c>
+      <c r="S12">
+        <v>0.0005775420270191572</v>
+      </c>
+      <c r="T12">
+        <v>0.0008716118121420318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.785643</v>
+      </c>
+      <c r="H13">
+        <v>2.356929</v>
+      </c>
+      <c r="I13">
+        <v>0.09460547695511548</v>
+      </c>
+      <c r="J13">
+        <v>0.1009773851399054</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.9495455</v>
+      </c>
+      <c r="N13">
+        <v>3.899091</v>
+      </c>
+      <c r="O13">
+        <v>0.878272619159261</v>
+      </c>
+      <c r="P13">
+        <v>0.827884512487409</v>
+      </c>
+      <c r="Q13">
+        <v>1.5316467752565</v>
+      </c>
+      <c r="R13">
+        <v>9.189880651539001</v>
+      </c>
+      <c r="S13">
+        <v>0.08308940003218038</v>
+      </c>
+      <c r="T13">
+        <v>0.08359761326880395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.102837</v>
+      </c>
+      <c r="I14">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J14">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.014513</v>
+      </c>
+      <c r="N14">
+        <v>0.043539</v>
+      </c>
+      <c r="O14">
+        <v>0.006538124153480057</v>
+      </c>
+      <c r="P14">
+        <v>0.009244530017173054</v>
+      </c>
+      <c r="Q14">
+        <v>0.005335157793666667</v>
+      </c>
+      <c r="R14">
+        <v>0.048016420143</v>
+      </c>
+      <c r="S14">
+        <v>0.0002894238197175307</v>
+      </c>
+      <c r="T14">
+        <v>0.0004367911046804183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.102837</v>
+      </c>
+      <c r="I15">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J15">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.2421403333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.726421</v>
+      </c>
+      <c r="O15">
+        <v>0.1090845147039467</v>
+      </c>
+      <c r="P15">
+        <v>0.154239204841748</v>
+      </c>
+      <c r="Q15">
+        <v>0.08901377293077778</v>
+      </c>
+      <c r="R15">
+        <v>0.8011239563770001</v>
+      </c>
+      <c r="S15">
+        <v>0.004828855521326361</v>
+      </c>
+      <c r="T15">
+        <v>0.007287586555801789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.102837</v>
+      </c>
+      <c r="I16">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J16">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.013551</v>
+      </c>
+      <c r="N16">
+        <v>0.040653</v>
+      </c>
+      <c r="O16">
+        <v>0.006104741983312083</v>
+      </c>
+      <c r="P16">
+        <v>0.008631752653669954</v>
+      </c>
+      <c r="Q16">
+        <v>0.004981514729</v>
+      </c>
+      <c r="R16">
+        <v>0.044833632561</v>
+      </c>
+      <c r="S16">
+        <v>0.0002702392462614387</v>
+      </c>
+      <c r="T16">
+        <v>0.0004078382318972196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.102837</v>
+      </c>
+      <c r="I17">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J17">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.9495455</v>
+      </c>
+      <c r="N17">
+        <v>3.899091</v>
+      </c>
+      <c r="O17">
+        <v>0.878272619159261</v>
+      </c>
+      <c r="P17">
+        <v>0.827884512487409</v>
+      </c>
+      <c r="Q17">
+        <v>0.7166769701945002</v>
+      </c>
+      <c r="R17">
+        <v>4.300061821167001</v>
+      </c>
+      <c r="S17">
+        <v>0.03887858508393326</v>
+      </c>
+      <c r="T17">
+        <v>0.03911638450904883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.5720835</v>
+      </c>
+      <c r="H18">
+        <v>3.144167</v>
+      </c>
+      <c r="I18">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J18">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.014513</v>
+      </c>
+      <c r="N18">
+        <v>0.043539</v>
+      </c>
+      <c r="O18">
+        <v>0.006538124153480057</v>
+      </c>
+      <c r="P18">
+        <v>0.009244530017173054</v>
+      </c>
+      <c r="Q18">
+        <v>0.0228156478355</v>
+      </c>
+      <c r="R18">
+        <v>0.136893887013</v>
+      </c>
+      <c r="S18">
+        <v>0.001237712585318333</v>
+      </c>
+      <c r="T18">
+        <v>0.001245283008486038</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.5720835</v>
+      </c>
+      <c r="H19">
+        <v>3.144167</v>
+      </c>
+      <c r="I19">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J19">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2421403333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.726421</v>
+      </c>
+      <c r="O19">
+        <v>0.1090845147039467</v>
+      </c>
+      <c r="P19">
+        <v>0.154239204841748</v>
+      </c>
+      <c r="Q19">
+        <v>0.3806648227178334</v>
+      </c>
+      <c r="R19">
+        <v>2.283988936307</v>
+      </c>
+      <c r="S19">
+        <v>0.02065046082683407</v>
+      </c>
+      <c r="T19">
+        <v>0.02077676860532939</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.142741208661</v>
-      </c>
-      <c r="H7">
-        <v>1.142741208661</v>
-      </c>
-      <c r="I7">
-        <v>0.2010376181749855</v>
-      </c>
-      <c r="J7">
-        <v>0.2010376181749855</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.94179127637705</v>
-      </c>
-      <c r="N7">
-        <v>1.94179127637705</v>
-      </c>
-      <c r="O7">
-        <v>0.89328086497572</v>
-      </c>
-      <c r="P7">
-        <v>0.89328086497572</v>
-      </c>
-      <c r="Q7">
-        <v>2.218964910134496</v>
-      </c>
-      <c r="R7">
-        <v>2.218964910134496</v>
-      </c>
-      <c r="S7">
-        <v>0.1795830574560096</v>
-      </c>
-      <c r="T7">
-        <v>0.1795830574560096</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.5720835</v>
+      </c>
+      <c r="H20">
+        <v>3.144167</v>
+      </c>
+      <c r="I20">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J20">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.013551</v>
+      </c>
+      <c r="N20">
+        <v>0.040653</v>
+      </c>
+      <c r="O20">
+        <v>0.006104741983312083</v>
+      </c>
+      <c r="P20">
+        <v>0.008631752653669954</v>
+      </c>
+      <c r="Q20">
+        <v>0.02130330350850001</v>
+      </c>
+      <c r="R20">
+        <v>0.127819821051</v>
+      </c>
+      <c r="S20">
+        <v>0.00115567031238536</v>
+      </c>
+      <c r="T20">
+        <v>0.001162738927030545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.5720835</v>
+      </c>
+      <c r="H21">
+        <v>3.144167</v>
+      </c>
+      <c r="I21">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J21">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.9495455</v>
+      </c>
+      <c r="N21">
+        <v>3.899091</v>
+      </c>
+      <c r="O21">
+        <v>0.878272619159261</v>
+      </c>
+      <c r="P21">
+        <v>0.827884512487409</v>
+      </c>
+      <c r="Q21">
+        <v>3.064848313049251</v>
+      </c>
+      <c r="R21">
+        <v>12.259393252197</v>
+      </c>
+      <c r="S21">
+        <v>0.1662631434576395</v>
+      </c>
+      <c r="T21">
+        <v>0.1115200572094177</v>
       </c>
     </row>
   </sheetData>
